--- a/biology/Médecine/Justine_Johnstone/Justine_Johnstone.xlsx
+++ b/biology/Médecine/Justine_Johnstone/Justine_Johnstone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justine Johnstone (31 janvier 1895 - 3 septembre 1982) est une actrice américaine de la scène et du cinéma muet, qui eut plus tard une autre carrière dans le domaine médical. Travaillant sous son nom de femme, Justine Wanger, elle a fait partie de l'équipe médicale qui a développé la technique du goutte à goutte moderne en intraveineuse[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justine Johnstone (31 janvier 1895 - 3 septembre 1982) est une actrice américaine de la scène et du cinéma muet, qui eut plus tard une autre carrière dans le domaine médical. Travaillant sous son nom de femme, Justine Wanger, elle a fait partie de l'équipe médicale qui a développé la technique du goutte à goutte moderne en intraveineuse. 
 </t>
         </is>
       </c>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière d'actrice
-Justine Johnstone a fréquenté l'école Emma Willard à Troy, État de New York. Artiste originale dans les Ziegfeld Follies et aux Folies Bergère, elle est apparue dans la production de Broadway de 1917 Over the Top, dans laquelle se produisit Fred Astaire[1].Johnstone épousa le producteur Walter Wanger le 13 septembre 1919. Ils divorcèrent en 1938[2]. Elle a par la suite gardé son nom d'épouse, bien que n'ayant pas eu d'enfants avec Wanger. Ce dernier épousa ensuite l'actrice Joan Bennett.
-Carrière médicale
-Après avoir abandonné la  carrière artistique, Justine Wanger étudie à l'Université Columbia, où elle s'investit dans la recherche sur les plantes, et devient assistante de recherches pour Samuel Hirshberg et Harold T. Hyman. Son équipe de recherches a développé la technique d'injection par intraveineuse. Leur avancée fut de ralentir le débit et d'éviter ce qu'on appelait alors un speed shock en introduisant la technique du goutte à goutte, aujourd'hui universelle[1],[3].  
-Elle a ensuite étudié et développé la recherche sur l'endocrinologie et le cancer ; elle installa un laboratoire dans sa maison à Hollywood[1].
-Décès
-Justine Wanger est morte à Santa Monica, en Californie, d'une insuffisance cardiaque, âgée de 87 ans. Elle repose au columbarium de la  Chapel of the Pines de Los Angeles.
+          <t>Carrière d'actrice</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justine Johnstone a fréquenté l'école Emma Willard à Troy, État de New York. Artiste originale dans les Ziegfeld Follies et aux Folies Bergère, elle est apparue dans la production de Broadway de 1917 Over the Top, dans laquelle se produisit Fred Astaire.Johnstone épousa le producteur Walter Wanger le 13 septembre 1919. Ils divorcèrent en 1938. Elle a par la suite gardé son nom d'épouse, bien que n'ayant pas eu d'enfants avec Wanger. Ce dernier épousa ensuite l'actrice Joan Bennett.
 </t>
         </is>
       </c>
@@ -545,10 +557,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir abandonné la  carrière artistique, Justine Wanger étudie à l'Université Columbia, où elle s'investit dans la recherche sur les plantes, et devient assistante de recherches pour Samuel Hirshberg et Harold T. Hyman. Son équipe de recherches a développé la technique d'injection par intraveineuse. Leur avancée fut de ralentir le débit et d'éviter ce qu'on appelait alors un speed shock en introduisant la technique du goutte à goutte, aujourd'hui universelle,.  
+Elle a ensuite étudié et développé la recherche sur l'endocrinologie et le cancer ; elle installa un laboratoire dans sa maison à Hollywood.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Justine_Johnstone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justine_Johnstone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justine Wanger est morte à Santa Monica, en Californie, d'une insuffisance cardiaque, âgée de 87 ans. Elle repose au columbarium de la  Chapel of the Pines de Los Angeles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Justine_Johnstone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Justine_Johnstone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1914 : The Crucible de Hugh Ford et Edwin S. Porter : Amelia
 1920 : Nothing But Lies de Lawrence C. Windom : Ann Nigh
